--- a/Data/EC/NIT-9007407995.xlsx
+++ b/Data/EC/NIT-9007407995.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20EBF26-A7FB-4006-936D-1E2484ACD3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80B10ED-48BB-449B-A000-BDDF0AE6AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{02F38ABC-AB6F-4ABA-8844-A2D90865E053}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A6D90B8-176D-467E-87A3-5F2C48ADE0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,157 +65,133 @@
     <t>CC</t>
   </si>
   <si>
-    <t>22799456</t>
-  </si>
-  <si>
-    <t>ANA FRANCISCA HERNANDEZ SANCHEZ</t>
+    <t>1101446167</t>
+  </si>
+  <si>
+    <t>NEIVER VASQUEZ BATISTA</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1126122320</t>
+  </si>
+  <si>
+    <t>WILMER ALBERTO GOMEZ LOZANO</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1041971980</t>
+  </si>
+  <si>
+    <t>WUALVE CATALAN BUELVAS</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1044913091</t>
+  </si>
+  <si>
+    <t>ANIBAL MARRUGO GOMEZ</t>
+  </si>
+  <si>
+    <t>9152204</t>
+  </si>
+  <si>
+    <t>WILFREDO ZABALETA JULIO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>9102566</t>
+  </si>
+  <si>
+    <t>EDUARDO ENRIQUE BLANCO LOPEZ</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>73007627</t>
+  </si>
+  <si>
+    <t>JANIER ENRIQUE CASTRO VILLALBA</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
   </si>
   <si>
     <t>1912</t>
   </si>
   <si>
-    <t>1041971980</t>
-  </si>
-  <si>
-    <t>WUALVE CATALAN BUELVAS</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1101446167</t>
-  </si>
-  <si>
-    <t>NEIVER VASQUEZ BATISTA</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>73202118</t>
-  </si>
-  <si>
-    <t>ORLANDO CORREA CARDONA</t>
+    <t>1192803516</t>
+  </si>
+  <si>
+    <t>LUZ ELENA VERGARA BATISTA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
   </si>
   <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>9102566</t>
-  </si>
-  <si>
-    <t>EDUARDO ENRIQUE BLANCO LOPEZ</t>
-  </si>
-  <si>
-    <t>1044913091</t>
-  </si>
-  <si>
-    <t>ANIBAL MARRUGO GOMEZ</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1123993295</t>
-  </si>
-  <si>
-    <t>OSCAR CELIN CHARRIS</t>
-  </si>
-  <si>
-    <t>1126122320</t>
-  </si>
-  <si>
-    <t>WILMER ALBERTO GOMEZ LOZANO</t>
-  </si>
-  <si>
-    <t>9152204</t>
-  </si>
-  <si>
-    <t>WILFREDO ZABALETA JULIO</t>
-  </si>
-  <si>
-    <t>1192803516</t>
-  </si>
-  <si>
-    <t>LUZ ELENA VERGARA BATISTA</t>
-  </si>
-  <si>
-    <t>1044607903</t>
-  </si>
-  <si>
-    <t>ERICK DAVID CELIN TORRES</t>
-  </si>
-  <si>
-    <t>73007627</t>
-  </si>
-  <si>
-    <t>JANIER ENRIQUE CASTRO VILLALBA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -314,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34786921-3F8D-B85F-E98C-C5488C29183E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5979DEE-ACB3-E9CD-B97A-856F8B7DE378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C507-5D91-42BE-A1F1-6E5BE15D46E1}">
-  <dimension ref="B2:J204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BF4AA-3EB1-4558-9046-8573741FBD71}">
+  <dimension ref="B2:J137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -992,7 +968,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1005,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6026539</v>
+        <v>3820415</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,14 +1074,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
         <v>27</v>
@@ -1135,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1178,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1195,13 +1171,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1218,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
         <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1241,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
         <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1270,10 +1246,10 @@
         <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>28708</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1287,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1310,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1339,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1356,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1385,7 +1361,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1402,13 +1378,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1425,13 +1401,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1454,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1471,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1494,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1517,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1546,7 +1522,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1563,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1586,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1609,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1638,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1655,13 +1631,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1678,13 +1654,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1701,13 +1677,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1730,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1747,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1770,16 +1746,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
-        <v>28708</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="18">
         <v>828116</v>
@@ -1793,13 +1769,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1816,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1839,13 +1815,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1862,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1885,13 +1861,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1908,13 +1884,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1931,13 +1907,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -1954,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -1977,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2000,13 +1976,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2023,13 +1999,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2046,13 +2022,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2069,13 +2045,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2092,13 +2068,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2115,10 +2091,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>37</v>
@@ -2138,13 +2114,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2161,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2184,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2207,13 +2183,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2230,13 +2206,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2253,13 +2229,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2276,16 +2252,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
-        <v>28708</v>
+        <v>33125</v>
       </c>
       <c r="G65" s="18">
         <v>828116</v>
@@ -2299,13 +2275,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2322,13 +2298,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2345,13 +2321,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2368,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2391,13 +2367,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2414,13 +2390,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2437,13 +2413,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2460,13 +2436,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2483,13 +2459,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2506,13 +2482,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2529,13 +2505,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2552,13 +2528,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2575,13 +2551,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2598,13 +2574,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2621,13 +2597,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2644,13 +2620,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2667,13 +2643,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2690,13 +2666,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2713,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2736,13 +2712,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2759,10 +2735,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>42</v>
@@ -2782,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2805,13 +2781,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2828,13 +2804,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
@@ -2851,16 +2827,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F90" s="18">
-        <v>28708</v>
+        <v>33125</v>
       </c>
       <c r="G90" s="18">
         <v>828116</v>
@@ -2874,13 +2850,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -2897,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
@@ -2920,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
         <v>33125</v>
@@ -2943,13 +2919,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F94" s="18">
         <v>33125</v>
@@ -2966,13 +2942,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
@@ -2989,13 +2965,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F96" s="18">
         <v>33125</v>
@@ -3012,13 +2988,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -3035,13 +3011,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F98" s="18">
         <v>33125</v>
@@ -3058,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3081,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18">
         <v>33125</v>
@@ -3104,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
         <v>33125</v>
@@ -3127,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F102" s="18">
         <v>33125</v>
@@ -3150,13 +3126,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F103" s="18">
         <v>33125</v>
@@ -3173,13 +3149,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F104" s="18">
         <v>33125</v>
@@ -3196,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F105" s="18">
         <v>33125</v>
@@ -3219,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
         <v>33125</v>
@@ -3242,13 +3218,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F107" s="18">
         <v>33125</v>
@@ -3265,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
         <v>33125</v>
@@ -3288,13 +3264,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
         <v>33125</v>
@@ -3311,13 +3287,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
         <v>33125</v>
@@ -3334,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
         <v>33125</v>
@@ -3357,13 +3333,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
         <v>33125</v>
@@ -3380,16 +3356,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
-        <v>28708</v>
+        <v>33125</v>
       </c>
       <c r="G113" s="18">
         <v>828116</v>
@@ -3403,13 +3379,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
         <v>33125</v>
@@ -3426,13 +3402,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
         <v>33125</v>
@@ -3449,13 +3425,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
         <v>33125</v>
@@ -3472,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
         <v>33125</v>
@@ -3495,13 +3471,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F118" s="18">
         <v>33125</v>
@@ -3518,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
         <v>33125</v>
@@ -3541,13 +3517,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
         <v>33125</v>
@@ -3564,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F121" s="18">
         <v>33125</v>
@@ -3587,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
         <v>33125</v>
@@ -3610,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
         <v>33125</v>
@@ -3633,13 +3609,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F124" s="18">
         <v>33125</v>
@@ -3656,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F125" s="18">
         <v>33125</v>
@@ -3679,13 +3655,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F126" s="18">
         <v>33125</v>
@@ -3702,16 +3678,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F127" s="18">
-        <v>33125</v>
+        <v>28708</v>
       </c>
       <c r="G127" s="18">
         <v>828116</v>
@@ -3725,16 +3701,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F128" s="18">
-        <v>33125</v>
+        <v>28708</v>
       </c>
       <c r="G128" s="18">
         <v>828116</v>
@@ -3748,16 +3724,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F129" s="18">
-        <v>33125</v>
+        <v>28708</v>
       </c>
       <c r="G129" s="18">
         <v>828116</v>
@@ -3771,16 +3747,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F130" s="18">
-        <v>33125</v>
+        <v>28708</v>
       </c>
       <c r="G130" s="18">
         <v>828116</v>
@@ -3790,1597 +3766,56 @@
       <c r="J130" s="20"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F131" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G131" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G132" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F133" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G133" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G134" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F135" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G135" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="B131" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F131" s="24">
+        <v>28708</v>
+      </c>
+      <c r="G131" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G136" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="B136" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="32"/>
+      <c r="H136" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G137" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="18">
-        <v>28708</v>
-      </c>
-      <c r="G138" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F139" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G139" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G140" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G141" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G142" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F143" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G143" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F144" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G144" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G145" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F146" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G146" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F147" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G147" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F148" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G148" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F149" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G149" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F150" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G150" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F151" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G151" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F152" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G152" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F153" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G153" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G154" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F155" s="18">
-        <v>28708</v>
-      </c>
-      <c r="G155" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G156" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F157" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G157" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F158" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G158" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G159" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F160" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G160" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F161" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G161" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G162" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F163" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G163" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F164" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G164" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G165" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F166" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G166" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G167" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F168" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G168" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F169" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G169" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F170" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G170" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G171" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G172" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F173" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G173" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F174" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G174" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F175" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G175" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G176" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F177" s="18">
-        <v>28708</v>
-      </c>
-      <c r="G177" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F178" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G178" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F179" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G179" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F180" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G180" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G181" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F182" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G182" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F183" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G183" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F184" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G184" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F185" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G185" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F186" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G186" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F187" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G187" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F188" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G188" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F189" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G189" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F190" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G190" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F191" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G191" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F192" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G192" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G193" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F194" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G194" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F195" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G195" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F196" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G196" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F197" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G197" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D198" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G198" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H198" s="25"/>
-      <c r="I198" s="25"/>
-      <c r="J198" s="26"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C203" s="32"/>
-      <c r="H203" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C204" s="32"/>
-      <c r="H204" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
+      <c r="B137" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="32"/>
+      <c r="H137" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="H204:J204"/>
-    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="H136:J136"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
